--- a/biology/Botanique/Morillon_(cépage)/Morillon_(cépage).xlsx
+++ b/biology/Botanique/Morillon_(cépage)/Morillon_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morillon_(c%C3%A9page)</t>
+          <t>Morillon_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le morillon  est un cépage qui existe en trois variétés, le noir, le hâtif et le blanc[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le morillon  est un cépage qui existe en trois variétés, le noir, le hâtif et le blanc.
 Il est cité par François Villon dans les derniers vers de son œuvre majeure, Le Testament :
 Ung traict but de vin morillon
 Quant de ce monde voult partir
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Morillon_(c%C3%A9page)</t>
+          <t>Morillon_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alexandre-Pierre Odart, Ampélographie, ou Traité des cépages les plus estimés dans tous les vignobles de quelque renom, éditeur Bixio (Paris), 1845, vol. XI, 436 p., Bibliothèque nationale de France</t>
         </is>
